--- a/Data/growth/rockweed_weights_may.xlsx
+++ b/Data/growth/rockweed_weights_may.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/tegula_silvetia/Data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{FEAE432B-034E-4800-B528-B6AD9F008E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3F7EEE9-AEDB-4C32-89EB-8DCE0AB1A167}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="8_{FEAE432B-034E-4800-B528-B6AD9F008E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C64B9A-27E3-436E-BC38-B7E7180FC82D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4CCE66D-8884-4C09-8163-32FD5FFA5679}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>purple</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>blue/red</t>
   </si>
 </sst>
 </file>
@@ -130,6 +136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514EEABA-B3D8-45A0-BE10-2BA671D587FE}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,6 +1200,9 @@
       <c r="D44" t="s">
         <v>8</v>
       </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
@@ -1204,6 +1217,9 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -1218,6 +1234,9 @@
       <c r="D46" t="s">
         <v>10</v>
       </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -1232,6 +1251,9 @@
       <c r="D47" t="s">
         <v>11</v>
       </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -1246,8 +1268,11 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>20240513</v>
       </c>
@@ -1260,8 +1285,11 @@
       <c r="D49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>20240513</v>
       </c>
@@ -1274,8 +1302,11 @@
       <c r="D50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>20240513</v>
       </c>
@@ -1288,8 +1319,11 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>20240513</v>
       </c>
@@ -1302,8 +1336,11 @@
       <c r="D52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>20240513</v>
       </c>
@@ -1316,8 +1353,11 @@
       <c r="D53" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>20240513</v>
       </c>
@@ -1330,8 +1370,11 @@
       <c r="D54" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>20240513</v>
       </c>
@@ -1344,8 +1387,11 @@
       <c r="D55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>20240513</v>
       </c>
@@ -1358,8 +1404,11 @@
       <c r="D56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>20240513</v>
       </c>
@@ -1372,8 +1421,11 @@
       <c r="D57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>20240513</v>
       </c>
@@ -1386,8 +1438,11 @@
       <c r="D58" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>20240513</v>
       </c>
@@ -1400,8 +1455,11 @@
       <c r="D59" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>20240513</v>
       </c>
@@ -1414,8 +1472,11 @@
       <c r="D60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>20240513</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="D61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>20240513</v>
       </c>
@@ -1442,8 +1506,11 @@
       <c r="D62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>20240513</v>
       </c>
@@ -1456,8 +1523,11 @@
       <c r="D63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>20240513</v>
       </c>
@@ -1470,8 +1540,11 @@
       <c r="D64" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>20240513</v>
       </c>
@@ -1484,8 +1557,11 @@
       <c r="D65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>20240513</v>
       </c>
@@ -1498,8 +1574,11 @@
       <c r="D66" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>20240513</v>
       </c>
@@ -1512,8 +1591,11 @@
       <c r="D67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>20240513</v>
       </c>
@@ -1526,8 +1608,11 @@
       <c r="D68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>20240513</v>
       </c>
@@ -1540,8 +1625,11 @@
       <c r="D69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>20240513</v>
       </c>
@@ -1554,8 +1642,11 @@
       <c r="D70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>20240513</v>
       </c>
@@ -1568,8 +1659,11 @@
       <c r="D71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>20240513</v>
       </c>
@@ -1582,8 +1676,11 @@
       <c r="D72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>20240513</v>
       </c>
@@ -1596,8 +1693,11 @@
       <c r="D73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>20240513</v>
       </c>
@@ -1610,8 +1710,11 @@
       <c r="D74" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>20240513</v>
       </c>
@@ -1624,8 +1727,11 @@
       <c r="D75" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>20240513</v>
       </c>
@@ -1638,8 +1744,11 @@
       <c r="D76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>20240513</v>
       </c>
@@ -1652,8 +1761,11 @@
       <c r="D77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>20240513</v>
       </c>
@@ -1666,8 +1778,11 @@
       <c r="D78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>20240513</v>
       </c>
@@ -1680,8 +1795,11 @@
       <c r="D79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>20240513</v>
       </c>
@@ -1694,8 +1812,11 @@
       <c r="D80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>20240513</v>
       </c>
@@ -1708,8 +1829,11 @@
       <c r="D81" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>20240513</v>
       </c>
@@ -1722,8 +1846,11 @@
       <c r="D82" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>20240513</v>
       </c>
@@ -1736,8 +1863,11 @@
       <c r="D83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>20240513</v>
       </c>
@@ -1750,8 +1880,11 @@
       <c r="D84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>20240513</v>
       </c>
@@ -1764,8 +1897,11 @@
       <c r="D85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>20240513</v>
       </c>
@@ -1778,8 +1914,11 @@
       <c r="D86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>20240513</v>
       </c>
@@ -1792,8 +1931,11 @@
       <c r="D87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>20240513</v>
       </c>
@@ -1806,8 +1948,11 @@
       <c r="D88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>20240513</v>
       </c>
@@ -1820,8 +1965,11 @@
       <c r="D89" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>20240513</v>
       </c>
@@ -1834,8 +1982,11 @@
       <c r="D90" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>20240513</v>
       </c>
@@ -1848,8 +1999,11 @@
       <c r="D91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>20240513</v>
       </c>
@@ -1862,8 +2016,11 @@
       <c r="D92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>20240513</v>
       </c>
@@ -1876,8 +2033,11 @@
       <c r="D93" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>20240513</v>
       </c>
@@ -1890,8 +2050,11 @@
       <c r="D94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>20240513</v>
       </c>
@@ -1904,8 +2067,11 @@
       <c r="D95" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>20240513</v>
       </c>
@@ -1918,8 +2084,11 @@
       <c r="D96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>20240513</v>
       </c>
@@ -1932,8 +2101,11 @@
       <c r="D97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>20240513</v>
       </c>
@@ -1946,8 +2118,11 @@
       <c r="D98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>20240513</v>
       </c>
@@ -1960,8 +2135,11 @@
       <c r="D99" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>20240513</v>
       </c>
@@ -1974,8 +2152,11 @@
       <c r="D100" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>20240513</v>
       </c>
@@ -1988,8 +2169,11 @@
       <c r="D101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>20240513</v>
       </c>
@@ -2002,8 +2186,11 @@
       <c r="D102" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>20240513</v>
       </c>
@@ -2016,8 +2203,11 @@
       <c r="D103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>20240513</v>
       </c>
@@ -2030,8 +2220,11 @@
       <c r="D104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>20240513</v>
       </c>
@@ -2044,8 +2237,11 @@
       <c r="D105" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>20240513</v>
       </c>
@@ -2058,8 +2254,11 @@
       <c r="D106" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>20240513</v>
       </c>
@@ -2072,8 +2271,11 @@
       <c r="D107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>20240513</v>
       </c>
@@ -2086,8 +2288,11 @@
       <c r="D108" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>20240513</v>
       </c>
@@ -2099,6 +2304,1857 @@
       </c>
       <c r="D109" t="s">
         <v>13</v>
+      </c>
+      <c r="E109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>20240518</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1.9353</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0.4738</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>20240518</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>2.8056999999999999</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>20240518</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>2.3738999999999999</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>20240518</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>1.8220000000000001</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>20240518</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>2.5708000000000002</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>20240518</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>2.0564</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>20240518</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>2.1724999999999999</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>20240518</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>2.4876</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>20240518</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>2.4266999999999999</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>20240518</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>2.0907</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>20240518</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>2.077</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>20240518</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>2.2225999999999999</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>20240518</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122">
+        <v>2.4638</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>20240518</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>1.9469000000000001</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>20240518</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>1.7619</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>20240518</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+      <c r="C125">
+        <v>2.3673000000000002</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>20240518</v>
+      </c>
+      <c r="B126">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>2.2385999999999999</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>20240518</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>2.3205</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>20240518</v>
+      </c>
+      <c r="B128">
+        <v>19</v>
+      </c>
+      <c r="C128">
+        <v>2.6936</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>20240518</v>
+      </c>
+      <c r="B129">
+        <v>20</v>
+      </c>
+      <c r="C129">
+        <v>2.6707999999999998</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>20240518</v>
+      </c>
+      <c r="B130">
+        <v>21</v>
+      </c>
+      <c r="C130">
+        <v>1.9374</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>20240518</v>
+      </c>
+      <c r="B131">
+        <v>22</v>
+      </c>
+      <c r="C131">
+        <v>2.3660999999999999</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>2.4299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>20240518</v>
+      </c>
+      <c r="B132">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>2.4695</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>20240518</v>
+      </c>
+      <c r="B133">
+        <v>24</v>
+      </c>
+      <c r="C133">
+        <v>2.3100999999999998</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>20240518</v>
+      </c>
+      <c r="B134">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>2.6507999999999998</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>20240518</v>
+      </c>
+      <c r="B135">
+        <v>26</v>
+      </c>
+      <c r="C135">
+        <v>2.1297000000000001</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>20240518</v>
+      </c>
+      <c r="B136">
+        <v>27</v>
+      </c>
+      <c r="C136">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>20240518</v>
+      </c>
+      <c r="B137">
+        <v>28</v>
+      </c>
+      <c r="C137">
+        <v>2.4927000000000001</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>20240518</v>
+      </c>
+      <c r="B138">
+        <v>29</v>
+      </c>
+      <c r="C138">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>20240518</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+      <c r="C139">
+        <v>2.4443000000000001</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>20240518</v>
+      </c>
+      <c r="B140">
+        <v>31</v>
+      </c>
+      <c r="C140">
+        <v>2.2614999999999998</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>20240518</v>
+      </c>
+      <c r="B141">
+        <v>32</v>
+      </c>
+      <c r="C141">
+        <v>2.4157999999999999</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>20240518</v>
+      </c>
+      <c r="B142">
+        <v>33</v>
+      </c>
+      <c r="C142">
+        <v>2.6724999999999999</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>20240518</v>
+      </c>
+      <c r="B143">
+        <v>34</v>
+      </c>
+      <c r="C143">
+        <v>2.2364000000000002</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>20240518</v>
+      </c>
+      <c r="B144">
+        <v>35</v>
+      </c>
+      <c r="C144">
+        <v>2.1781000000000001</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>20240518</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145">
+        <v>2.5608</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>20240518</v>
+      </c>
+      <c r="B146">
+        <v>37</v>
+      </c>
+      <c r="C146">
+        <v>2.6032999999999999</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>20240518</v>
+      </c>
+      <c r="B147">
+        <v>38</v>
+      </c>
+      <c r="C147">
+        <v>2.4552</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>20240518</v>
+      </c>
+      <c r="B148">
+        <v>39</v>
+      </c>
+      <c r="C148">
+        <v>2.0247000000000002</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>20240518</v>
+      </c>
+      <c r="B149">
+        <v>40</v>
+      </c>
+      <c r="C149">
+        <v>2.4986999999999999</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>20240518</v>
+      </c>
+      <c r="B150">
+        <v>41</v>
+      </c>
+      <c r="C150">
+        <v>2.4611000000000001</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>20240518</v>
+      </c>
+      <c r="B151">
+        <v>42</v>
+      </c>
+      <c r="C151">
+        <v>2.4483999999999999</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>20240518</v>
+      </c>
+      <c r="B152">
+        <v>43</v>
+      </c>
+      <c r="C152">
+        <v>2.2496</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>20240518</v>
+      </c>
+      <c r="B153">
+        <v>44</v>
+      </c>
+      <c r="C153">
+        <v>2.3986000000000001</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>20240518</v>
+      </c>
+      <c r="B154">
+        <v>45</v>
+      </c>
+      <c r="C154">
+        <v>2.4049</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>20240518</v>
+      </c>
+      <c r="B155">
+        <v>46</v>
+      </c>
+      <c r="C155">
+        <v>2.0876999999999999</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>20240518</v>
+      </c>
+      <c r="B156">
+        <v>47</v>
+      </c>
+      <c r="C156">
+        <v>1.9334</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>20240518</v>
+      </c>
+      <c r="B157">
+        <v>48</v>
+      </c>
+      <c r="C157">
+        <v>2.3603000000000001</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>20240518</v>
+      </c>
+      <c r="B158">
+        <v>49</v>
+      </c>
+      <c r="C158">
+        <v>2.3706999999999998</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>20240518</v>
+      </c>
+      <c r="B159">
+        <v>50</v>
+      </c>
+      <c r="C159">
+        <v>2.0295000000000001</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>20240518</v>
+      </c>
+      <c r="B160">
+        <v>51</v>
+      </c>
+      <c r="C160">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>20240518</v>
+      </c>
+      <c r="B161">
+        <v>52</v>
+      </c>
+      <c r="C161">
+        <v>2.5727000000000002</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>20240518</v>
+      </c>
+      <c r="B162">
+        <v>53</v>
+      </c>
+      <c r="C162">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>20240518</v>
+      </c>
+      <c r="B163">
+        <v>54</v>
+      </c>
+      <c r="C163">
+        <v>2.59</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>20240518</v>
+      </c>
+      <c r="B164">
+        <v>55</v>
+      </c>
+      <c r="C164">
+        <v>2.1116000000000001</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>20240518</v>
+      </c>
+      <c r="B165">
+        <v>56</v>
+      </c>
+      <c r="C165">
+        <v>2.3711000000000002</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>20240518</v>
+      </c>
+      <c r="B166">
+        <v>57</v>
+      </c>
+      <c r="C166">
+        <v>1.9335</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>20240518</v>
+      </c>
+      <c r="B167">
+        <v>58</v>
+      </c>
+      <c r="C167">
+        <v>2.5851000000000002</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>20240518</v>
+      </c>
+      <c r="B168">
+        <v>59</v>
+      </c>
+      <c r="C168">
+        <v>2.1955</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>20240518</v>
+      </c>
+      <c r="B169">
+        <v>60</v>
+      </c>
+      <c r="C169">
+        <v>2.5817000000000001</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>20240518</v>
+      </c>
+      <c r="B170">
+        <v>61</v>
+      </c>
+      <c r="C170">
+        <v>1.7859</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170">
+        <v>11</v>
+      </c>
+      <c r="F170">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>20240518</v>
+      </c>
+      <c r="B171">
+        <v>62</v>
+      </c>
+      <c r="C171">
+        <v>2.5655000000000001</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>20240518</v>
+      </c>
+      <c r="B172">
+        <v>63</v>
+      </c>
+      <c r="C172">
+        <v>2.2972000000000001</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>11</v>
+      </c>
+      <c r="F172">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>20240518</v>
+      </c>
+      <c r="B173">
+        <v>64</v>
+      </c>
+      <c r="C173">
+        <v>2.5912000000000002</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>20240518</v>
+      </c>
+      <c r="B174">
+        <v>65</v>
+      </c>
+      <c r="C174">
+        <v>1.8638999999999999</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>20240518</v>
+      </c>
+      <c r="B175">
+        <v>66</v>
+      </c>
+      <c r="C175">
+        <v>2.2587000000000002</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>20240518</v>
+      </c>
+      <c r="B176">
+        <v>67</v>
+      </c>
+      <c r="C176">
+        <v>2.6313</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>20240518</v>
+      </c>
+      <c r="B177">
+        <v>68</v>
+      </c>
+      <c r="C177">
+        <v>2.6271</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>20240518</v>
+      </c>
+      <c r="B178">
+        <v>69</v>
+      </c>
+      <c r="C178">
+        <v>2.6791999999999998</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>20240518</v>
+      </c>
+      <c r="B179">
+        <v>70</v>
+      </c>
+      <c r="C179">
+        <v>2.5813999999999999</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>20240518</v>
+      </c>
+      <c r="B180">
+        <v>71</v>
+      </c>
+      <c r="C180">
+        <v>2.2810999999999999</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>20240518</v>
+      </c>
+      <c r="B181">
+        <v>72</v>
+      </c>
+      <c r="C181">
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>20240518</v>
+      </c>
+      <c r="B182">
+        <v>73</v>
+      </c>
+      <c r="C182">
+        <v>2.3416999999999999</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>20240518</v>
+      </c>
+      <c r="B183">
+        <v>74</v>
+      </c>
+      <c r="C183">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>20240518</v>
+      </c>
+      <c r="B184">
+        <v>75</v>
+      </c>
+      <c r="C184">
+        <v>2.0737999999999999</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>20240518</v>
+      </c>
+      <c r="B185">
+        <v>76</v>
+      </c>
+      <c r="C185">
+        <v>2.6802000000000001</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>20240518</v>
+      </c>
+      <c r="B186">
+        <v>77</v>
+      </c>
+      <c r="C186">
+        <v>2.2787999999999999</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>20240518</v>
+      </c>
+      <c r="B187">
+        <v>78</v>
+      </c>
+      <c r="C187">
+        <v>2.3018000000000001</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>20240518</v>
+      </c>
+      <c r="B188">
+        <v>79</v>
+      </c>
+      <c r="C188">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>20240518</v>
+      </c>
+      <c r="B189">
+        <v>80</v>
+      </c>
+      <c r="C189">
+        <v>2.3603999999999998</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>20240518</v>
+      </c>
+      <c r="B190">
+        <v>81</v>
+      </c>
+      <c r="C190">
+        <v>2.1377000000000002</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>20240518</v>
+      </c>
+      <c r="B191">
+        <v>82</v>
+      </c>
+      <c r="C191">
+        <v>2.6322999999999999</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>20240518</v>
+      </c>
+      <c r="B192">
+        <v>83</v>
+      </c>
+      <c r="C192">
+        <v>2.3411</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>20240518</v>
+      </c>
+      <c r="B193">
+        <v>84</v>
+      </c>
+      <c r="C193">
+        <v>2.7031000000000001</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>20240518</v>
+      </c>
+      <c r="B194">
+        <v>85</v>
+      </c>
+      <c r="C194">
+        <v>2.6595</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>20240518</v>
+      </c>
+      <c r="B195">
+        <v>86</v>
+      </c>
+      <c r="C195">
+        <v>2.3119000000000001</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>20240518</v>
+      </c>
+      <c r="B196">
+        <v>87</v>
+      </c>
+      <c r="C196">
+        <v>2.214</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>20240518</v>
+      </c>
+      <c r="B197">
+        <v>88</v>
+      </c>
+      <c r="C197">
+        <v>2.5097999999999998</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>20240518</v>
+      </c>
+      <c r="B198">
+        <v>89</v>
+      </c>
+      <c r="C198">
+        <v>2.4548999999999999</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>20240518</v>
+      </c>
+      <c r="B199">
+        <v>90</v>
+      </c>
+      <c r="C199">
+        <v>2.1564999999999999</v>
+      </c>
+      <c r="D199" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>20240518</v>
+      </c>
+      <c r="B200">
+        <v>91</v>
+      </c>
+      <c r="C200">
+        <v>2.4352999999999998</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>20240518</v>
+      </c>
+      <c r="B201">
+        <v>92</v>
+      </c>
+      <c r="C201">
+        <v>2.4769999999999999</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>20240518</v>
+      </c>
+      <c r="B202">
+        <v>93</v>
+      </c>
+      <c r="C202">
+        <v>2.1246999999999998</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>20240518</v>
+      </c>
+      <c r="B203">
+        <v>94</v>
+      </c>
+      <c r="C203">
+        <v>2.5746000000000002</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>20240518</v>
+      </c>
+      <c r="B204">
+        <v>95</v>
+      </c>
+      <c r="C204">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>20240518</v>
+      </c>
+      <c r="B205">
+        <v>96</v>
+      </c>
+      <c r="C205">
+        <v>2.6970999999999998</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>20240518</v>
+      </c>
+      <c r="B206">
+        <v>97</v>
+      </c>
+      <c r="C206">
+        <v>2.2042000000000002</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>20240518</v>
+      </c>
+      <c r="B207">
+        <v>98</v>
+      </c>
+      <c r="C207">
+        <v>2.7667999999999999</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>20240518</v>
+      </c>
+      <c r="B208">
+        <v>99</v>
+      </c>
+      <c r="C208">
+        <v>2.8786</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>20240518</v>
+      </c>
+      <c r="B209">
+        <v>100</v>
+      </c>
+      <c r="C209">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>20240518</v>
+      </c>
+      <c r="B210">
+        <v>101</v>
+      </c>
+      <c r="C210">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>20240518</v>
+      </c>
+      <c r="B211">
+        <v>102</v>
+      </c>
+      <c r="C211">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>20240518</v>
+      </c>
+      <c r="B212">
+        <v>103</v>
+      </c>
+      <c r="C212">
+        <v>2.7073999999999998</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>20240518</v>
+      </c>
+      <c r="B213">
+        <v>104</v>
+      </c>
+      <c r="C213">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>20240518</v>
+      </c>
+      <c r="B214">
+        <v>105</v>
+      </c>
+      <c r="C214">
+        <v>2.8694999999999999</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>20240518</v>
+      </c>
+      <c r="B215">
+        <v>106</v>
+      </c>
+      <c r="C215">
+        <v>2.0215000000000001</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>20240518</v>
+      </c>
+      <c r="B216">
+        <v>107</v>
+      </c>
+      <c r="C216">
+        <v>2.4476</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>20240518</v>
+      </c>
+      <c r="B217">
+        <v>108</v>
+      </c>
+      <c r="C217">
+        <v>2.3168000000000002</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/growth/rockweed_weights_may.xlsx
+++ b/Data/growth/rockweed_weights_may.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b051fb7dc4dbd1ad/Desktop/tegula_silvetia/Data/growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="8_{FEAE432B-034E-4800-B528-B6AD9F008E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C64B9A-27E3-436E-BC38-B7E7180FC82D}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="8_{FEAE432B-034E-4800-B528-B6AD9F008E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ED7174-D003-49DC-8248-555E84C59400}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4CCE66D-8884-4C09-8163-32FD5FFA5679}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -143,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514EEABA-B3D8-45A0-BE10-2BA671D587FE}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4004,7 +4004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>20240518</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>20240518</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>20240518</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>20240518</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>20240518</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>20240518</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>20240518</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>20240518</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>20240518</v>
       </c>
@@ -4154,6 +4154,1878 @@
         <v>15</v>
       </c>
       <c r="E217">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>20240525</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1.4683999999999999</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>20240525</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>2.5301</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>0.35770000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>20240525</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>2.6151</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>20240525</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>2.0297000000000001</v>
+      </c>
+      <c r="D221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>20240525</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>2.6734</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>20240525</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+      <c r="C223">
+        <v>2.2252999999999998</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>20240525</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>2.3618000000000001</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>20240525</v>
+      </c>
+      <c r="B225">
+        <v>8</v>
+      </c>
+      <c r="C225">
+        <v>2.4681000000000002</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>0.22470000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>20240525</v>
+      </c>
+      <c r="B226">
+        <v>9</v>
+      </c>
+      <c r="C226">
+        <v>2.2147999999999999</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>0.4481</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>20240525</v>
+      </c>
+      <c r="B227">
+        <v>10</v>
+      </c>
+      <c r="C227">
+        <v>2.3559000000000001</v>
+      </c>
+      <c r="D227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>20240525</v>
+      </c>
+      <c r="B228">
+        <v>11</v>
+      </c>
+      <c r="C228">
+        <v>2.3592</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>20240525</v>
+      </c>
+      <c r="B229">
+        <v>12</v>
+      </c>
+      <c r="C229">
+        <v>2.5068999999999999</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>20240525</v>
+      </c>
+      <c r="B230">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>2.7040999999999999</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>20240525</v>
+      </c>
+      <c r="B231">
+        <v>14</v>
+      </c>
+      <c r="C231">
+        <v>2.2631000000000001</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>20240525</v>
+      </c>
+      <c r="B232">
+        <v>15</v>
+      </c>
+      <c r="C232">
+        <v>1.9653</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>20240525</v>
+      </c>
+      <c r="B233">
+        <v>16</v>
+      </c>
+      <c r="C233">
+        <v>2.532</v>
+      </c>
+      <c r="D233" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>20240525</v>
+      </c>
+      <c r="B234">
+        <v>17</v>
+      </c>
+      <c r="C234">
+        <v>2.8563999999999998</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>20240525</v>
+      </c>
+      <c r="B235">
+        <v>18</v>
+      </c>
+      <c r="C235">
+        <v>2.6766999999999999</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>20240525</v>
+      </c>
+      <c r="B236">
+        <v>19</v>
+      </c>
+      <c r="C236">
+        <v>3.0282</v>
+      </c>
+      <c r="D236" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>20240525</v>
+      </c>
+      <c r="B237">
+        <v>20</v>
+      </c>
+      <c r="C237">
+        <v>3.4268000000000001</v>
+      </c>
+      <c r="D237" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>20240525</v>
+      </c>
+      <c r="B238">
+        <v>21</v>
+      </c>
+      <c r="C238">
+        <v>2.1846000000000001</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>20240525</v>
+      </c>
+      <c r="B239">
+        <v>22</v>
+      </c>
+      <c r="C239">
+        <v>2.5327000000000002</v>
+      </c>
+      <c r="D239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>20240525</v>
+      </c>
+      <c r="B240">
+        <v>23</v>
+      </c>
+      <c r="C240">
+        <v>2.7427999999999999</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>20240525</v>
+      </c>
+      <c r="B241">
+        <v>24</v>
+      </c>
+      <c r="C241">
+        <v>2.4485000000000001</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>20240525</v>
+      </c>
+      <c r="B242">
+        <v>25</v>
+      </c>
+      <c r="C242">
+        <v>3.4712999999999998</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>20240525</v>
+      </c>
+      <c r="B243">
+        <v>26</v>
+      </c>
+      <c r="C243">
+        <v>2.5583999999999998</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>20240525</v>
+      </c>
+      <c r="B244">
+        <v>27</v>
+      </c>
+      <c r="C244">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>20240525</v>
+      </c>
+      <c r="B245">
+        <v>28</v>
+      </c>
+      <c r="C245">
+        <v>3.1128999999999998</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>20240525</v>
+      </c>
+      <c r="B246">
+        <v>29</v>
+      </c>
+      <c r="C246">
+        <v>2.3376000000000001</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>20240525</v>
+      </c>
+      <c r="B247">
+        <v>30</v>
+      </c>
+      <c r="C247">
+        <v>2.5746000000000002</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>20240525</v>
+      </c>
+      <c r="B248">
+        <v>31</v>
+      </c>
+      <c r="C248">
+        <v>2.4131999999999998</v>
+      </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>20240525</v>
+      </c>
+      <c r="B249">
+        <v>32</v>
+      </c>
+      <c r="C249">
+        <v>2.5804999999999998</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>20240525</v>
+      </c>
+      <c r="B250">
+        <v>33</v>
+      </c>
+      <c r="C250">
+        <v>2.6082999999999998</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250">
+        <v>6</v>
+      </c>
+      <c r="F250">
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>20240525</v>
+      </c>
+      <c r="B251">
+        <v>34</v>
+      </c>
+      <c r="C251">
+        <v>1.8188</v>
+      </c>
+      <c r="D251" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251">
+        <v>6</v>
+      </c>
+      <c r="F251">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>20240525</v>
+      </c>
+      <c r="B252">
+        <v>35</v>
+      </c>
+      <c r="C252">
+        <v>2.3512</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>20240525</v>
+      </c>
+      <c r="B253">
+        <v>36</v>
+      </c>
+      <c r="C253">
+        <v>3.0162</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>20240525</v>
+      </c>
+      <c r="B254">
+        <v>37</v>
+      </c>
+      <c r="C254">
+        <v>2.6941999999999999</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>20240525</v>
+      </c>
+      <c r="B255">
+        <v>38</v>
+      </c>
+      <c r="C255">
+        <v>2.4727999999999999</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>20240525</v>
+      </c>
+      <c r="B256">
+        <v>39</v>
+      </c>
+      <c r="C256">
+        <v>2.3429000000000002</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>20240525</v>
+      </c>
+      <c r="B257">
+        <v>40</v>
+      </c>
+      <c r="C257">
+        <v>2.5649000000000002</v>
+      </c>
+      <c r="D257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>20240525</v>
+      </c>
+      <c r="B258">
+        <v>41</v>
+      </c>
+      <c r="C258">
+        <v>2.4914999999999998</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258">
+        <v>7</v>
+      </c>
+      <c r="F258">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>20240525</v>
+      </c>
+      <c r="B259">
+        <v>42</v>
+      </c>
+      <c r="C259">
+        <v>2.5825</v>
+      </c>
+      <c r="D259" t="s">
+        <v>14</v>
+      </c>
+      <c r="E259">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>20240525</v>
+      </c>
+      <c r="B260">
+        <v>43</v>
+      </c>
+      <c r="C260">
+        <v>2.3422000000000001</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>20240525</v>
+      </c>
+      <c r="B261">
+        <v>44</v>
+      </c>
+      <c r="C261">
+        <v>2.6718000000000002</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>20240525</v>
+      </c>
+      <c r="B262">
+        <v>45</v>
+      </c>
+      <c r="C262">
+        <v>2.7063999999999999</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>20240525</v>
+      </c>
+      <c r="B263">
+        <v>46</v>
+      </c>
+      <c r="C263">
+        <v>2.2503000000000002</v>
+      </c>
+      <c r="D263" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>20240525</v>
+      </c>
+      <c r="B264">
+        <v>47</v>
+      </c>
+      <c r="C264">
+        <v>1.8424</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264">
+        <v>8</v>
+      </c>
+      <c r="F264">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>20240525</v>
+      </c>
+      <c r="B265">
+        <v>48</v>
+      </c>
+      <c r="C265">
+        <v>2.6865999999999999</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>20240525</v>
+      </c>
+      <c r="B266">
+        <v>49</v>
+      </c>
+      <c r="C266">
+        <v>2.5851999999999999</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>20240525</v>
+      </c>
+      <c r="B267">
+        <v>50</v>
+      </c>
+      <c r="C267">
+        <v>2.0083000000000002</v>
+      </c>
+      <c r="D267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267">
+        <v>9</v>
+      </c>
+      <c r="F267">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>20240525</v>
+      </c>
+      <c r="B268">
+        <v>51</v>
+      </c>
+      <c r="C268">
+        <v>2.6273</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+      <c r="E268">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>20240525</v>
+      </c>
+      <c r="B269">
+        <v>52</v>
+      </c>
+      <c r="C269">
+        <v>2.7128000000000001</v>
+      </c>
+      <c r="D269" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>20240525</v>
+      </c>
+      <c r="B270">
+        <v>53</v>
+      </c>
+      <c r="C270">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="D270" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>20240525</v>
+      </c>
+      <c r="B271">
+        <v>54</v>
+      </c>
+      <c r="C271">
+        <v>2.7717000000000001</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>20240525</v>
+      </c>
+      <c r="B272">
+        <v>55</v>
+      </c>
+      <c r="C272">
+        <v>2.0872999999999999</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>20240525</v>
+      </c>
+      <c r="B273">
+        <v>56</v>
+      </c>
+      <c r="C273">
+        <v>2.5798999999999999</v>
+      </c>
+      <c r="D273" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>20240525</v>
+      </c>
+      <c r="B274">
+        <v>57</v>
+      </c>
+      <c r="C274">
+        <v>1.9781</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>20240525</v>
+      </c>
+      <c r="B275">
+        <v>58</v>
+      </c>
+      <c r="C275">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>20240525</v>
+      </c>
+      <c r="B276">
+        <v>59</v>
+      </c>
+      <c r="C276">
+        <v>2.4914999999999998</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>20240525</v>
+      </c>
+      <c r="B277">
+        <v>60</v>
+      </c>
+      <c r="C277">
+        <v>2.5501</v>
+      </c>
+      <c r="D277" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>20240525</v>
+      </c>
+      <c r="B278">
+        <v>61</v>
+      </c>
+      <c r="C278">
+        <v>1.9520999999999999</v>
+      </c>
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>20240525</v>
+      </c>
+      <c r="B279">
+        <v>62</v>
+      </c>
+      <c r="C279">
+        <v>2.8933</v>
+      </c>
+      <c r="D279" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>20240525</v>
+      </c>
+      <c r="B280">
+        <v>63</v>
+      </c>
+      <c r="C280">
+        <v>2.3683999999999998</v>
+      </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>20240525</v>
+      </c>
+      <c r="B281">
+        <v>64</v>
+      </c>
+      <c r="C281">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>20240525</v>
+      </c>
+      <c r="B282">
+        <v>65</v>
+      </c>
+      <c r="C282">
+        <v>2.0017999999999998</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>20240525</v>
+      </c>
+      <c r="B283">
+        <v>66</v>
+      </c>
+      <c r="C283">
+        <v>2.3081999999999998</v>
+      </c>
+      <c r="D283" t="s">
+        <v>13</v>
+      </c>
+      <c r="E283">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>20240525</v>
+      </c>
+      <c r="B284">
+        <v>67</v>
+      </c>
+      <c r="C284">
+        <v>2.3647999999999998</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>20240525</v>
+      </c>
+      <c r="B285">
+        <v>68</v>
+      </c>
+      <c r="C285">
+        <v>2.6518000000000002</v>
+      </c>
+      <c r="D285" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>20240525</v>
+      </c>
+      <c r="B286">
+        <v>69</v>
+      </c>
+      <c r="C286">
+        <v>2.8963999999999999</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+      <c r="E286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>20240525</v>
+      </c>
+      <c r="B287">
+        <v>70</v>
+      </c>
+      <c r="C287">
+        <v>2.9590999999999998</v>
+      </c>
+      <c r="D287" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>20240525</v>
+      </c>
+      <c r="B288">
+        <v>71</v>
+      </c>
+      <c r="C288">
+        <v>2.5566</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>20240525</v>
+      </c>
+      <c r="B289">
+        <v>72</v>
+      </c>
+      <c r="C289">
+        <v>2.4013</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>20240525</v>
+      </c>
+      <c r="B290">
+        <v>73</v>
+      </c>
+      <c r="C290">
+        <v>2.8348</v>
+      </c>
+      <c r="D290" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>20240525</v>
+      </c>
+      <c r="B291">
+        <v>74</v>
+      </c>
+      <c r="C291">
+        <v>2.4636999999999998</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>20240525</v>
+      </c>
+      <c r="B292">
+        <v>75</v>
+      </c>
+      <c r="C292">
+        <v>2.2185000000000001</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>20240525</v>
+      </c>
+      <c r="B293">
+        <v>76</v>
+      </c>
+      <c r="C293">
+        <v>2.7930999999999999</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>20240525</v>
+      </c>
+      <c r="B294">
+        <v>77</v>
+      </c>
+      <c r="C294">
+        <v>2.6495000000000002</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>20240525</v>
+      </c>
+      <c r="B295">
+        <v>78</v>
+      </c>
+      <c r="C295">
+        <v>2.3965000000000001</v>
+      </c>
+      <c r="D295" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>20240525</v>
+      </c>
+      <c r="B296">
+        <v>79</v>
+      </c>
+      <c r="C296">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>20240525</v>
+      </c>
+      <c r="B297">
+        <v>80</v>
+      </c>
+      <c r="C297">
+        <v>2.3512</v>
+      </c>
+      <c r="D297" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>20240525</v>
+      </c>
+      <c r="B298">
+        <v>81</v>
+      </c>
+      <c r="C298">
+        <v>2.1715</v>
+      </c>
+      <c r="D298" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>20240525</v>
+      </c>
+      <c r="B299">
+        <v>82</v>
+      </c>
+      <c r="C299">
+        <v>2.6777000000000002</v>
+      </c>
+      <c r="D299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>20240525</v>
+      </c>
+      <c r="B300">
+        <v>83</v>
+      </c>
+      <c r="C300">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>20240525</v>
+      </c>
+      <c r="B301">
+        <v>84</v>
+      </c>
+      <c r="C301">
+        <v>2.5924999999999998</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>20240525</v>
+      </c>
+      <c r="B302">
+        <v>85</v>
+      </c>
+      <c r="C302">
+        <v>3.1162000000000001</v>
+      </c>
+      <c r="D302" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>20240525</v>
+      </c>
+      <c r="B303">
+        <v>86</v>
+      </c>
+      <c r="C303">
+        <v>2.0703</v>
+      </c>
+      <c r="D303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303">
+        <v>15</v>
+      </c>
+      <c r="F303">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>20240525</v>
+      </c>
+      <c r="B304">
+        <v>87</v>
+      </c>
+      <c r="C304">
+        <v>2.4765000000000001</v>
+      </c>
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>20240525</v>
+      </c>
+      <c r="B305">
+        <v>88</v>
+      </c>
+      <c r="C305">
+        <v>2.5001000000000002</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>20240525</v>
+      </c>
+      <c r="B306">
+        <v>89</v>
+      </c>
+      <c r="C306">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="D306" t="s">
+        <v>14</v>
+      </c>
+      <c r="E306">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>20240525</v>
+      </c>
+      <c r="B307">
+        <v>90</v>
+      </c>
+      <c r="C307">
+        <v>1.9663999999999999</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307">
+        <v>15</v>
+      </c>
+      <c r="F307">
+        <v>8.6300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>20240525</v>
+      </c>
+      <c r="B308">
+        <v>91</v>
+      </c>
+      <c r="C308">
+        <v>2.4935999999999998</v>
+      </c>
+      <c r="D308" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>20240525</v>
+      </c>
+      <c r="B309">
+        <v>92</v>
+      </c>
+      <c r="C309">
+        <v>2.5316000000000001</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>20240525</v>
+      </c>
+      <c r="B310">
+        <v>93</v>
+      </c>
+      <c r="C310">
+        <v>2.1743999999999999</v>
+      </c>
+      <c r="D310" t="s">
+        <v>10</v>
+      </c>
+      <c r="E310">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>20240525</v>
+      </c>
+      <c r="B311">
+        <v>94</v>
+      </c>
+      <c r="C311">
+        <v>1.8257000000000001</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311">
+        <v>17</v>
+      </c>
+      <c r="F311">
+        <v>0.83720000000000006</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>20240525</v>
+      </c>
+      <c r="B312">
+        <v>95</v>
+      </c>
+      <c r="C312">
+        <v>3.2631999999999999</v>
+      </c>
+      <c r="D312" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>20240525</v>
+      </c>
+      <c r="B313">
+        <v>96</v>
+      </c>
+      <c r="C313">
+        <v>2.4161999999999999</v>
+      </c>
+      <c r="D313" t="s">
+        <v>13</v>
+      </c>
+      <c r="E313">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>20240525</v>
+      </c>
+      <c r="B314">
+        <v>97</v>
+      </c>
+      <c r="C314">
+        <v>2.3519000000000001</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>20240525</v>
+      </c>
+      <c r="B315">
+        <v>98</v>
+      </c>
+      <c r="C315">
+        <v>2.8813</v>
+      </c>
+      <c r="D315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>20240525</v>
+      </c>
+      <c r="B316">
+        <v>99</v>
+      </c>
+      <c r="C316">
+        <v>3.4176000000000002</v>
+      </c>
+      <c r="D316" t="s">
+        <v>10</v>
+      </c>
+      <c r="E316">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>20240525</v>
+      </c>
+      <c r="B317">
+        <v>100</v>
+      </c>
+      <c r="C317">
+        <v>2.6431</v>
+      </c>
+      <c r="D317" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>20240525</v>
+      </c>
+      <c r="B318">
+        <v>101</v>
+      </c>
+      <c r="C318">
+        <v>2.7879999999999998</v>
+      </c>
+      <c r="D318" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>20240525</v>
+      </c>
+      <c r="B319">
+        <v>102</v>
+      </c>
+      <c r="C319">
+        <v>2.0385</v>
+      </c>
+      <c r="D319" t="s">
+        <v>13</v>
+      </c>
+      <c r="E319">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>20240525</v>
+      </c>
+      <c r="B320">
+        <v>103</v>
+      </c>
+      <c r="C320">
+        <v>2.92</v>
+      </c>
+      <c r="D320" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>20240525</v>
+      </c>
+      <c r="B321">
+        <v>104</v>
+      </c>
+      <c r="C321">
+        <v>2.3997000000000002</v>
+      </c>
+      <c r="D321" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>20240525</v>
+      </c>
+      <c r="B322">
+        <v>105</v>
+      </c>
+      <c r="C322">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="D322" t="s">
+        <v>10</v>
+      </c>
+      <c r="E322">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>20240525</v>
+      </c>
+      <c r="B323">
+        <v>106</v>
+      </c>
+      <c r="C323">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="D323" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>20240525</v>
+      </c>
+      <c r="B324">
+        <v>107</v>
+      </c>
+      <c r="C324">
+        <v>2.5072000000000001</v>
+      </c>
+      <c r="D324" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>20240525</v>
+      </c>
+      <c r="B325">
+        <v>108</v>
+      </c>
+      <c r="C325">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="D325" t="s">
+        <v>15</v>
+      </c>
+      <c r="E325">
         <v>19</v>
       </c>
     </row>
